--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flex\Desktop\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28386602-8B7A-4259-B0D6-8A048A4DCDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CFDCD-9FFE-4CB6-AB42-1659E397D206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Red error message is displayed prompting trader that password should be 8 to 32 characters long</t>
   </si>
   <si>
-    <t>Trader is redirected to login page after succesfully registering</t>
-  </si>
-  <si>
     <t>Select the log out button</t>
   </si>
   <si>
@@ -271,6 +268,18 @@
   </si>
   <si>
     <t>Order summary is seen with a popup</t>
+  </si>
+  <si>
+    <t>Shop Details</t>
+  </si>
+  <si>
+    <t>Trader has to enter their valid shop details</t>
+  </si>
+  <si>
+    <t>A pop is displayed for OTP verification</t>
+  </si>
+  <si>
+    <t>Trader is redirected to login page where the trader has to enter their username/email and password</t>
   </si>
 </sst>
 </file>
@@ -322,11 +331,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +715,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -802,46 +810,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -849,13 +857,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -863,13 +871,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -877,13 +885,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -891,46 +899,46 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -938,63 +946,63 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -1004,45 +1012,59 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>4</v>
       </c>
     </row>

--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flex\Desktop\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Portfolio Team Project\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CFDCD-9FFE-4CB6-AB42-1659E397D206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,9 +191,6 @@
     <t>Trader enters an email address which is already used by existing trader</t>
   </si>
   <si>
-    <t xml:space="preserve">Trader inputs password that is less than 8 characters </t>
-  </si>
-  <si>
     <t>Trader inputs password with no uppercase letter, a number or a special character</t>
   </si>
   <si>
@@ -280,12 +276,15 @@
   </si>
   <si>
     <t>Trader is redirected to login page where the trader has to enter their username/email and password</t>
+  </si>
+  <si>
+    <t>Trader inputs password that is less than 8 characters or greater than 32 characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -648,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +703,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -715,10 +714,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -732,7 +731,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -760,7 +759,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -774,7 +773,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -785,10 +784,10 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -799,10 +798,10 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -810,13 +809,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -827,10 +826,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -916,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -932,10 +931,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -946,10 +945,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -960,10 +959,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -988,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -1002,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1016,10 +1015,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1040,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1059,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
         <v>64</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>

--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Portfolio Team Project\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\00\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>Trader inputs password that is less than 8 characters or greater than 32 characters</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Click on change password button</t>
+  </si>
+  <si>
+    <t>Trader can change password from the trader panel</t>
   </si>
 </sst>
 </file>
@@ -330,10 +339,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="67" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +982,15 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1069,5 +1087,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
+++ b/4.MONITORING AND CONTROLLING PHASE/Testing and Evaluating/Trader PHP/TRADER PHP TESTING.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\00\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Team-Portfolio\4.MONITORING AND CONTROLLING PHASE\Testing and Evaluating\Trader PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Unique Username</t>
   </si>
   <si>
-    <t>Invalid Date of birth</t>
-  </si>
-  <si>
     <t>Unique Contact Number</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>Trader inputs contact number greater or less than 10 digits</t>
-  </si>
-  <si>
-    <t>Trader's entered age is less than 12</t>
   </si>
   <si>
     <t>Trader enters a contact number already used by existing trader</t>
@@ -658,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="67" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +682,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,10 +704,10 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -724,10 +718,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -738,10 +732,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -749,13 +743,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -766,10 +760,10 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -777,10 +771,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -794,10 +788,10 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -805,13 +799,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -819,46 +813,46 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -866,13 +860,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -880,13 +874,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -894,13 +888,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -908,46 +902,46 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -955,46 +949,46 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
+      <c r="C32" t="s">
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1002,13 +996,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1016,72 +1010,58 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
         <v>4</v>
       </c>
     </row>
